--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2504249.249395232</v>
+        <v>2501793.297850583</v>
       </c>
     </row>
     <row r="7">
@@ -1370,19 +1370,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,13 +1430,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>14.29722073374734</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>307.5272957798215</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996207</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1591,7 +1591,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>275.9723987444501</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>251.0267230750004</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,10 +1667,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F16" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1828,7 +1828,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y16" t="n">
         <v>171.6095167335022</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5090575347321</v>
+        <v>220.0831066710482</v>
       </c>
       <c r="C17" t="n">
-        <v>297.048107642259</v>
+        <v>297.0481076422589</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4582574919344</v>
+        <v>286.4582574919343</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7055859435133</v>
+        <v>313.7055859435131</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6512616129629</v>
+        <v>338.6512616129628</v>
       </c>
       <c r="G17" t="n">
-        <v>342.6969415247049</v>
+        <v>342.6969415247048</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3829802585719</v>
+        <v>226.3829802585718</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.96297765942722</v>
       </c>
       <c r="T17" t="n">
-        <v>23.7445326206952</v>
+        <v>135.6931860108715</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7703878301535</v>
+        <v>182.7703878301534</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>259.5274743413863</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0161845886645</v>
+        <v>281.0161845886644</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5063165497205</v>
+        <v>301.5063165497204</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0131545273051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6071960531888</v>
+        <v>111.6071960531887</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02203696987931</v>
+        <v>99.02203696987921</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39068888946383</v>
+        <v>80.39068888946373</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20917851782065</v>
+        <v>78.20917851782055</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19626389418272</v>
+        <v>77.19626389418262</v>
       </c>
       <c r="G19" t="n">
-        <v>97.8010241302797</v>
+        <v>97.8010241302796</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53023078557226</v>
+        <v>76.53023078557216</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12763628108957</v>
+        <v>28.12763628108947</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70736854129881</v>
+        <v>20.70736854129871</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5442412026934</v>
+        <v>121.5442412026933</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3241651474207</v>
+        <v>151.3241651474206</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9870540768643</v>
+        <v>217.9870540768642</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9128591950795</v>
+        <v>183.9128591950794</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2982142078425</v>
+        <v>218.2982142078424</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4848712602886</v>
+        <v>157.4848712602885</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3598692233463</v>
+        <v>150.3598692233462</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5090575347321</v>
+        <v>314.5090575347319</v>
       </c>
       <c r="C20" t="n">
-        <v>297.048107642259</v>
+        <v>297.0481076422589</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4582574919344</v>
+        <v>286.4582574919343</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7055859435133</v>
+        <v>239.9177421654875</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6512616129629</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6969415247049</v>
+        <v>342.6969415247048</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3829802585719</v>
+        <v>226.3829802585718</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96297765942731</v>
+        <v>40.96297765942721</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6931860108716</v>
+        <v>135.6931860108715</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7703878301535</v>
+        <v>182.7703878301534</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5274743413864</v>
+        <v>259.5274743413863</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0161845886645</v>
+        <v>281.0161845886644</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>301.5063165497204</v>
       </c>
       <c r="Y20" t="n">
-        <v>207.0803656860357</v>
+        <v>318.0131545273049</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.6071960531888</v>
+        <v>111.6071960531887</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02203696987931</v>
+        <v>99.02203696987921</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39068888946383</v>
+        <v>80.39068888946373</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20917851782065</v>
+        <v>78.20917851782055</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19626389418272</v>
+        <v>77.19626389418262</v>
       </c>
       <c r="G22" t="n">
-        <v>97.8010241302797</v>
+        <v>97.8010241302796</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53023078557226</v>
+        <v>76.53023078557216</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12763628108957</v>
+        <v>28.12763628108947</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70736854129881</v>
+        <v>20.70736854129871</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5442412026934</v>
+        <v>121.5442412026933</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3241651474207</v>
+        <v>151.3241651474206</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9870540768643</v>
+        <v>217.9870540768642</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9128591950795</v>
+        <v>183.9128591950794</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2982142078425</v>
+        <v>218.2982142078424</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4848712602886</v>
+        <v>157.4848712602885</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3598692233463</v>
+        <v>150.3598692233462</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5090575347321</v>
+        <v>314.5090575347319</v>
       </c>
       <c r="C23" t="n">
         <v>297.048107642259</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4582574919344</v>
+        <v>286.4582574919343</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7055859435133</v>
+        <v>313.7055859435131</v>
       </c>
       <c r="F23" t="n">
-        <v>338.6512616129629</v>
+        <v>338.6512616129628</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6969415247049</v>
+        <v>342.6969415247048</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3829802585719</v>
+        <v>226.3829802585718</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96297765942728</v>
+        <v>40.96297765942722</v>
       </c>
       <c r="T23" t="n">
         <v>135.6931860108716</v>
@@ -2375,16 +2375,16 @@
         <v>182.7703878301534</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5274743413864</v>
+        <v>259.5274743413863</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0161845886645</v>
+        <v>281.0161845886644</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5063165497205</v>
+        <v>301.5063165497204</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0131545273051</v>
+        <v>318.013154527305</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.6071960531888</v>
+        <v>111.6071960531887</v>
       </c>
       <c r="C25" t="n">
-        <v>99.0220369698793</v>
+        <v>99.02203696987922</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39068888946382</v>
+        <v>80.39068888946375</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20917851782063</v>
+        <v>78.20917851782056</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19626389418271</v>
+        <v>77.19626389418264</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80102413027969</v>
+        <v>97.80102413027961</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53023078557224</v>
+        <v>76.53023078557217</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12763628108956</v>
+        <v>28.12763628108949</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70736854129879</v>
+        <v>20.70736854129872</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5442412026934</v>
+        <v>121.5442412026933</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3241651474207</v>
+        <v>151.3241651474206</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9870540768643</v>
+        <v>217.9870540768642</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9128591950795</v>
+        <v>183.9128591950794</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2982142078425</v>
+        <v>218.2982142078424</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4848712602886</v>
+        <v>157.4848712602885</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3598692233463</v>
+        <v>150.3598692233462</v>
       </c>
     </row>
     <row r="26">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797688</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>309.2297443452327</v>
       </c>
       <c r="F35" t="n">
-        <v>334.1754200146823</v>
+        <v>334.1754200146824</v>
       </c>
       <c r="G35" t="n">
         <v>338.2210999264244</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>36.48713606114673</v>
+        <v>36.4871360611468</v>
       </c>
       <c r="T35" t="n">
-        <v>131.217344412591</v>
+        <v>131.2173444125911</v>
       </c>
       <c r="U35" t="n">
         <v>178.2945462318729</v>
       </c>
       <c r="V35" t="n">
-        <v>255.0516327431058</v>
+        <v>255.0516327431059</v>
       </c>
       <c r="W35" t="n">
-        <v>276.5403429903839</v>
+        <v>276.540342990384</v>
       </c>
       <c r="X35" t="n">
-        <v>297.0304749514399</v>
+        <v>297.03047495144</v>
       </c>
       <c r="Y35" t="n">
-        <v>313.5373129290245</v>
+        <v>313.5373129290246</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.1313544549082</v>
+        <v>107.1313544549083</v>
       </c>
       <c r="C37" t="n">
-        <v>94.54619537159873</v>
+        <v>94.5461953715988</v>
       </c>
       <c r="D37" t="n">
-        <v>75.91484729118325</v>
+        <v>75.91484729118332</v>
       </c>
       <c r="E37" t="n">
-        <v>73.73333691954006</v>
+        <v>73.73333691954014</v>
       </c>
       <c r="F37" t="n">
-        <v>72.72042229590214</v>
+        <v>72.72042229590221</v>
       </c>
       <c r="G37" t="n">
-        <v>93.32518253199912</v>
+        <v>93.32518253199919</v>
       </c>
       <c r="H37" t="n">
-        <v>72.05438918729168</v>
+        <v>72.05438918729175</v>
       </c>
       <c r="I37" t="n">
-        <v>23.65179468280899</v>
+        <v>23.65179468280906</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23152694301822</v>
+        <v>16.2315269430183</v>
       </c>
       <c r="S37" t="n">
-        <v>117.0683996044128</v>
+        <v>117.0683996044129</v>
       </c>
       <c r="T37" t="n">
-        <v>190.1334980850646</v>
+        <v>190.1334980850634</v>
       </c>
       <c r="U37" t="n">
         <v>213.5112124785838</v>
       </c>
       <c r="V37" t="n">
-        <v>179.4370175967989</v>
+        <v>179.437017596799</v>
       </c>
       <c r="W37" t="n">
-        <v>213.8223726095619</v>
+        <v>213.822372609562</v>
       </c>
       <c r="X37" t="n">
         <v>153.0090296620081</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.8840276250657</v>
+        <v>145.8840276250658</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>310.0332159364514</v>
+        <v>310.0332159364515</v>
       </c>
       <c r="C38" t="n">
-        <v>292.5722660439784</v>
+        <v>292.5722660439785</v>
       </c>
       <c r="D38" t="n">
-        <v>281.9824158936538</v>
+        <v>281.9824158936539</v>
       </c>
       <c r="E38" t="n">
-        <v>309.2297443452326</v>
+        <v>309.2297443452327</v>
       </c>
       <c r="F38" t="n">
         <v>334.1754200146823</v>
       </c>
       <c r="G38" t="n">
-        <v>338.2210999264243</v>
+        <v>338.2210999264244</v>
       </c>
       <c r="H38" t="n">
-        <v>221.9071386602913</v>
+        <v>221.9071386602914</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>36.48713606114666</v>
+        <v>36.48713606114671</v>
       </c>
       <c r="T38" t="n">
         <v>131.217344412591</v>
       </c>
       <c r="U38" t="n">
-        <v>178.2945462318728</v>
+        <v>178.2945462318729</v>
       </c>
       <c r="V38" t="n">
         <v>255.0516327431058</v>
@@ -3569,7 +3569,7 @@
         <v>297.0304749514399</v>
       </c>
       <c r="Y38" t="n">
-        <v>313.5373129290244</v>
+        <v>313.5373129290245</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>150.4165289908336</v>
+        <v>107.1313544549082</v>
       </c>
       <c r="C40" t="n">
-        <v>94.54619537159867</v>
+        <v>94.54619537159874</v>
       </c>
       <c r="D40" t="n">
-        <v>75.91484729118319</v>
+        <v>75.91484729118326</v>
       </c>
       <c r="E40" t="n">
-        <v>73.73333691954001</v>
+        <v>73.73333691954008</v>
       </c>
       <c r="F40" t="n">
-        <v>72.72042229590208</v>
+        <v>72.72042229590215</v>
       </c>
       <c r="G40" t="n">
-        <v>93.32518253199906</v>
+        <v>93.32518253199913</v>
       </c>
       <c r="H40" t="n">
-        <v>72.05438918729162</v>
+        <v>72.05438918729169</v>
       </c>
       <c r="I40" t="n">
-        <v>23.65179468280893</v>
+        <v>23.65179468280899</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23152694301817</v>
+        <v>16.23152694301822</v>
       </c>
       <c r="S40" t="n">
-        <v>117.0683996044127</v>
+        <v>117.0683996044128</v>
       </c>
       <c r="T40" t="n">
-        <v>146.84832354914</v>
+        <v>146.8483235491401</v>
       </c>
       <c r="U40" t="n">
-        <v>213.5112124785837</v>
+        <v>213.5112124785838</v>
       </c>
       <c r="V40" t="n">
-        <v>179.4370175967989</v>
+        <v>222.7221921327238</v>
       </c>
       <c r="W40" t="n">
         <v>213.8223726095619</v>
       </c>
       <c r="X40" t="n">
-        <v>153.009029662008</v>
+        <v>153.0090296620081</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.8840276250656</v>
+        <v>145.8840276250657</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>228.3281793355221</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>251.422369285476</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958324</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,13 +3797,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247741</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3977,16 +3977,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>293.0961410879727</v>
+        <v>334.6992950586752</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>363.9465890348609</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>684.268901082273</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
@@ -5039,25 +5039,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2677.383608767879</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2372.064586445838</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2357.622949341042</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.622949341042</v>
+        <v>1672.57379350717</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,25 +5106,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,19 +5133,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254614</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
@@ -5203,7 +5203,7 @@
         <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,13 +5218,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="14">
@@ -5258,34 +5258,34 @@
         <v>1301.367519464212</v>
       </c>
       <c r="D14" t="n">
-        <v>1022.607520732444</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="E14" t="n">
-        <v>684.2689010822731</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5294,34 +5294,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
         <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
         <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
         <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580261</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5346,28 +5346,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052937</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254601</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611977</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268779</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770408</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G16" t="n">
-        <v>215.155714499833</v>
+        <v>215.1557144998339</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5458,7 +5458,7 @@
         <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
         <v>2112.720554588246</v>
@@ -5467,19 +5467,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874601</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5492,73 +5492,73 @@
         <v>1889.6869997392</v>
       </c>
       <c r="C17" t="n">
-        <v>1589.638406161161</v>
+        <v>1589.63840616116</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.286630916783</v>
+        <v>1300.286630916782</v>
       </c>
       <c r="E17" t="n">
-        <v>983.4123016809104</v>
+        <v>983.4123016809101</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3403202536751</v>
+        <v>641.3403202536749</v>
       </c>
       <c r="G17" t="n">
-        <v>295.181793461044</v>
+        <v>295.1817934610439</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.229076498639</v>
       </c>
       <c r="T17" t="n">
-        <v>3301.62144522463</v>
+        <v>3147.165252245234</v>
       </c>
       <c r="U17" t="n">
-        <v>3117.004891860839</v>
+        <v>2962.548698881442</v>
       </c>
       <c r="V17" t="n">
-        <v>3117.004891860839</v>
+        <v>2700.399734900244</v>
       </c>
       <c r="W17" t="n">
-        <v>2833.150159953097</v>
+        <v>2416.545002992502</v>
       </c>
       <c r="X17" t="n">
-        <v>2528.59832505439</v>
+        <v>2111.993168093794</v>
       </c>
       <c r="Y17" t="n">
-        <v>2207.37291644095</v>
+        <v>2111.993168093794</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5598,7 +5598,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2162169052017</v>
+        <v>609.216216905201</v>
       </c>
       <c r="C19" t="n">
-        <v>509.193957339667</v>
+        <v>509.1939573396664</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9912412897036</v>
+        <v>427.9912412897031</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9920710696827</v>
+        <v>348.9920710696823</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0160469341446</v>
+        <v>271.0160469341443</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2271336712358</v>
+        <v>172.2271336712356</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92387025146581</v>
+        <v>94.92387025146573</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5680,43 +5680,43 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.953211266508</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.361587972373</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.691186892786</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.298687326446</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.908983478962</v>
+        <v>1955.90898347896</v>
       </c>
       <c r="R19" t="n">
-        <v>1934.992449598862</v>
+        <v>1934.992449598861</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.220488788061</v>
+        <v>1812.220488788059</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.367796719959</v>
+        <v>1659.367796719958</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.178853207975</v>
+        <v>1439.178853207974</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.40828836446</v>
+        <v>1253.408288364459</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.905041689872</v>
+        <v>1032.905041689871</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8294141542269</v>
+        <v>873.829414154226</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9507583730691</v>
+        <v>721.9507583730683</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.6869997392</v>
+        <v>1473.081842778606</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.638406161161</v>
+        <v>1173.033249200566</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.286630916783</v>
+        <v>883.6814739561883</v>
       </c>
       <c r="E20" t="n">
-        <v>983.4123016809104</v>
+        <v>641.340320253675</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3403202536751</v>
+        <v>641.340320253675</v>
       </c>
       <c r="G20" t="n">
-        <v>295.181793461044</v>
+        <v>295.1817934610439</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
@@ -5762,40 +5762,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.229076498638</v>
+        <v>3284.229076498639</v>
       </c>
       <c r="T20" t="n">
         <v>3147.165252245233</v>
       </c>
       <c r="U20" t="n">
-        <v>2962.548698881441</v>
+        <v>2962.548698881442</v>
       </c>
       <c r="V20" t="n">
         <v>2700.399734900243</v>
       </c>
       <c r="W20" t="n">
-        <v>2416.545002992501</v>
+        <v>2416.545002992502</v>
       </c>
       <c r="X20" t="n">
-        <v>2416.545002992501</v>
+        <v>2111.993168093794</v>
       </c>
       <c r="Y20" t="n">
-        <v>2207.37291644095</v>
+        <v>1790.767759480355</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2162169052017</v>
+        <v>609.216216905201</v>
       </c>
       <c r="C22" t="n">
-        <v>509.193957339667</v>
+        <v>509.1939573396664</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9912412897036</v>
+        <v>427.9912412897031</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9920710696827</v>
+        <v>348.9920710696823</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0160469341446</v>
+        <v>271.0160469341443</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2271336712358</v>
+        <v>172.2271336712356</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92387025146581</v>
+        <v>94.92387025146573</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>140.2491842695884</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>344.2363672184647</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>660.7961656669609</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>1004.95321126651</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.361587972375</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1645.691186892788</v>
+        <v>1645.691186892786</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.298687326447</v>
+        <v>1878.298687326446</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.908983478962</v>
+        <v>1955.90898347896</v>
       </c>
       <c r="R22" t="n">
-        <v>1934.992449598862</v>
+        <v>1934.992449598861</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.220488788061</v>
+        <v>1812.220488788059</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.367796719959</v>
+        <v>1659.367796719958</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.178853207975</v>
+        <v>1439.178853207974</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.40828836446</v>
+        <v>1253.408288364459</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.905041689872</v>
+        <v>1032.905041689871</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8294141542269</v>
+        <v>873.829414154226</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9507583730691</v>
+        <v>721.9507583730683</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.189145799621</v>
+        <v>1898.18914579962</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.140552221581</v>
+        <v>1598.14055222158</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.788776977203</v>
+        <v>1308.788776977202</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9144477413307</v>
+        <v>991.9144477413303</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8424663140954</v>
+        <v>649.8424663140951</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6839395214643</v>
+        <v>303.6839395214642</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01426249260373</v>
+        <v>75.01426249260372</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01426249260373</v>
+        <v>75.01426249260372</v>
       </c>
       <c r="J23" t="n">
-        <v>263.8933934516292</v>
+        <v>361.9178293224559</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7127671414758</v>
+        <v>695.7372030123024</v>
       </c>
       <c r="L23" t="n">
-        <v>1048.746980389885</v>
+        <v>1146.771416260711</v>
       </c>
       <c r="M23" t="n">
-        <v>1977.048478735856</v>
+        <v>1680.303320932636</v>
       </c>
       <c r="N23" t="n">
-        <v>2523.827295794638</v>
+        <v>2227.082137991418</v>
       </c>
       <c r="O23" t="n">
-        <v>3026.799766673975</v>
+        <v>2730.054608870755</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.409696317702</v>
+        <v>3443.409696317701</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.696058073384</v>
+        <v>3691.696058073383</v>
       </c>
       <c r="R23" t="n">
         <v>3750.713124630186</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.336379519654</v>
+        <v>3709.336379519653</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.272555266248</v>
+        <v>3572.272555266247</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.656001902457</v>
+        <v>3387.656001902456</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.507037921259</v>
+        <v>3125.507037921258</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.652306013517</v>
+        <v>2841.652306013516</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.100471114809</v>
+        <v>2537.100471114808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.87506250137</v>
+        <v>2215.875062501369</v>
       </c>
     </row>
     <row r="24">
@@ -6057,22 +6057,22 @@
         <v>320.8865486205801</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5234484531983</v>
+        <v>184.5234484531982</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02155409106578</v>
+        <v>94.02155409106575</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01426249260373</v>
+        <v>75.01426249260372</v>
       </c>
       <c r="J24" t="n">
         <v>168.6915319832211</v>
       </c>
       <c r="K24" t="n">
-        <v>406.955730963568</v>
+        <v>406.9557309635682</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6538912762334</v>
+        <v>773.6538912762336</v>
       </c>
       <c r="M24" t="n">
         <v>1220.930216498549</v>
@@ -6121,58 +6121,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.718362965622</v>
+        <v>617.7183629656213</v>
       </c>
       <c r="C25" t="n">
-        <v>517.6961034000873</v>
+        <v>517.6961034000867</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4933873501238</v>
+        <v>436.4933873501234</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4942171301029</v>
+        <v>357.4942171301026</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5181929945649</v>
+        <v>279.5181929945646</v>
       </c>
       <c r="G25" t="n">
-        <v>180.729279731656</v>
+        <v>180.7292797316559</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4260163118861</v>
+        <v>103.426016311886</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01426249260373</v>
+        <v>75.01426249260372</v>
       </c>
       <c r="J25" t="n">
-        <v>148.7513303300084</v>
+        <v>120.1368949395393</v>
       </c>
       <c r="K25" t="n">
-        <v>352.7385132788848</v>
+        <v>324.1240778884156</v>
       </c>
       <c r="L25" t="n">
-        <v>669.2983117273809</v>
+        <v>640.6838763369117</v>
       </c>
       <c r="M25" t="n">
-        <v>1013.45535732693</v>
+        <v>984.8409219364607</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.863734032795</v>
+        <v>1354.863734032793</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.193332953208</v>
+        <v>1654.193332953207</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.800833386867</v>
+        <v>1886.800833386866</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.411129539382</v>
+        <v>1964.411129539381</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.494595659283</v>
+        <v>1943.494595659281</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.722634848481</v>
+        <v>1820.72263484848</v>
       </c>
       <c r="T25" t="n">
         <v>1667.869942780379</v>
@@ -6181,16 +6181,16 @@
         <v>1447.680999268395</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.910434424881</v>
+        <v>1261.91043442488</v>
       </c>
       <c r="W25" t="n">
         <v>1041.407187750292</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3315602146472</v>
+        <v>882.3315602146465</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4529044334894</v>
+        <v>730.4529044334887</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,64 +6212,64 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1771.984857554752</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226676</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6367,28 +6367,28 @@
         <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6440,61 +6440,61 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>907.4660419013969</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1771.984857554752</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>2305.516762226676</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6506,7 +6506,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6616,19 +6616,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960311</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,7 +6640,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
         <v>2271.591606277852</v>
@@ -6652,19 +6652,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="32">
@@ -6680,70 +6680,70 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>907.4660419013969</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1771.984857554752</v>
+        <v>1119.741581677074</v>
       </c>
       <c r="M32" t="n">
-        <v>2305.516762226676</v>
+        <v>1653.273486348999</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2200.052303407781</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960309</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6895,13 +6895,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6914,55 +6914,55 @@
         <v>1869.771103905776</v>
       </c>
       <c r="C35" t="n">
-        <v>1574.243562447212</v>
+        <v>1574.243562447211</v>
       </c>
       <c r="D35" t="n">
         <v>1289.412839322309</v>
       </c>
       <c r="E35" t="n">
-        <v>977.059562205912</v>
+        <v>977.0595622059118</v>
       </c>
       <c r="F35" t="n">
-        <v>639.508632898152</v>
+        <v>639.5086328981517</v>
       </c>
       <c r="G35" t="n">
-        <v>297.871158224996</v>
+        <v>297.8711582249961</v>
       </c>
       <c r="H35" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="I35" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J35" t="n">
-        <v>262.6016642746362</v>
+        <v>430.0073132949893</v>
       </c>
       <c r="K35" t="n">
-        <v>596.4210379644827</v>
+        <v>763.8266869848358</v>
       </c>
       <c r="L35" t="n">
-        <v>1047.455251212892</v>
+        <v>1214.860900233245</v>
       </c>
       <c r="M35" t="n">
-        <v>1580.987155884816</v>
+        <v>1748.392804905169</v>
       </c>
       <c r="N35" t="n">
-        <v>2127.765972943599</v>
+        <v>2295.171621963952</v>
       </c>
       <c r="O35" t="n">
-        <v>2630.738443822936</v>
+        <v>2918.989615436624</v>
       </c>
       <c r="P35" t="n">
-        <v>3344.093531269881</v>
+        <v>3313.763981793802</v>
       </c>
       <c r="Q35" t="n">
-        <v>3627.109599223737</v>
+        <v>3562.050343549485</v>
       </c>
       <c r="R35" t="n">
-        <v>3686.126665780539</v>
+        <v>3686.12666578054</v>
       </c>
       <c r="S35" t="n">
-        <v>3649.270972789482</v>
+        <v>3649.270972789483</v>
       </c>
       <c r="T35" t="n">
         <v>3516.728200655552</v>
@@ -7008,10 +7008,10 @@
         <v>183.2317192762053</v>
       </c>
       <c r="H36" t="n">
-        <v>92.72982491407282</v>
+        <v>92.72982491407285</v>
       </c>
       <c r="I36" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J36" t="n">
         <v>167.3998028062281</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7792689523017</v>
+        <v>584.7792689523023</v>
       </c>
       <c r="C37" t="n">
-        <v>489.2780615062424</v>
+        <v>489.2780615062429</v>
       </c>
       <c r="D37" t="n">
-        <v>412.5963975757542</v>
+        <v>412.5963975757547</v>
       </c>
       <c r="E37" t="n">
-        <v>338.1182794752087</v>
+        <v>338.1182794752091</v>
       </c>
       <c r="F37" t="n">
-        <v>264.6633074591459</v>
+        <v>264.6633074591462</v>
       </c>
       <c r="G37" t="n">
-        <v>170.3954463157125</v>
+        <v>170.3954463157127</v>
       </c>
       <c r="H37" t="n">
-        <v>97.61323501541786</v>
+        <v>97.61323501541794</v>
       </c>
       <c r="I37" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J37" t="n">
-        <v>118.8451657625463</v>
+        <v>118.8451657625464</v>
       </c>
       <c r="K37" t="n">
-        <v>322.8323487114227</v>
+        <v>322.8323487114228</v>
       </c>
       <c r="L37" t="n">
-        <v>639.3921471599187</v>
+        <v>639.3921471599189</v>
       </c>
       <c r="M37" t="n">
         <v>983.5491927594678</v>
@@ -7120,25 +7120,25 @@
         <v>1918.109483211296</v>
       </c>
       <c r="S37" t="n">
-        <v>1799.85857451997</v>
+        <v>1799.858574519969</v>
       </c>
       <c r="T37" t="n">
-        <v>1607.804536050207</v>
+        <v>1607.804536050208</v>
       </c>
       <c r="U37" t="n">
         <v>1392.136644657699</v>
       </c>
       <c r="V37" t="n">
-        <v>1210.887131933659</v>
+        <v>1210.88713193366</v>
       </c>
       <c r="W37" t="n">
-        <v>994.9049373785462</v>
+        <v>994.9049373785469</v>
       </c>
       <c r="X37" t="n">
-        <v>840.3503619623764</v>
+        <v>840.3503619623771</v>
       </c>
       <c r="Y37" t="n">
-        <v>692.9927583006938</v>
+        <v>692.9927583006945</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>977.0595622059125</v>
       </c>
       <c r="F38" t="n">
-        <v>639.5086328981525</v>
+        <v>639.5086328981524</v>
       </c>
       <c r="G38" t="n">
-        <v>297.871158224996</v>
+        <v>297.8711582249961</v>
       </c>
       <c r="H38" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="I38" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J38" t="n">
-        <v>262.6016642746362</v>
+        <v>262.6016642746364</v>
       </c>
       <c r="K38" t="n">
-        <v>596.4210379644827</v>
+        <v>596.421037964483</v>
       </c>
       <c r="L38" t="n">
         <v>1047.455251212892</v>
       </c>
       <c r="M38" t="n">
-        <v>1869.238327498505</v>
+        <v>1615.716862082989</v>
       </c>
       <c r="N38" t="n">
-        <v>2416.017144557287</v>
+        <v>2162.495679141772</v>
       </c>
       <c r="O38" t="n">
-        <v>2918.989615436624</v>
+        <v>2665.468150021109</v>
       </c>
       <c r="P38" t="n">
-        <v>3313.763981793802</v>
+        <v>3378.823237468055</v>
       </c>
       <c r="Q38" t="n">
-        <v>3562.050343549484</v>
+        <v>3627.109599223737</v>
       </c>
       <c r="R38" t="n">
-        <v>3686.126665780539</v>
+        <v>3686.12666578054</v>
       </c>
       <c r="S38" t="n">
-        <v>3649.270972789482</v>
+        <v>3649.270972789483</v>
       </c>
       <c r="T38" t="n">
         <v>3516.728200655552</v>
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>948.7542713645361</v>
+        <v>948.7542713645357</v>
       </c>
       <c r="C39" t="n">
-        <v>774.3012420834091</v>
+        <v>774.3012420834087</v>
       </c>
       <c r="D39" t="n">
-        <v>625.3668324221578</v>
+        <v>625.3668324221576</v>
       </c>
       <c r="E39" t="n">
-        <v>466.1293774167023</v>
+        <v>466.129377416702</v>
       </c>
       <c r="F39" t="n">
-        <v>319.5948194435872</v>
+        <v>319.5948194435871</v>
       </c>
       <c r="G39" t="n">
-        <v>183.2317192762053</v>
+        <v>183.2317192762058</v>
       </c>
       <c r="H39" t="n">
-        <v>92.72982491407282</v>
+        <v>92.72982491407322</v>
       </c>
       <c r="I39" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J39" t="n">
-        <v>167.3998028062281</v>
+        <v>167.399802806228</v>
       </c>
       <c r="K39" t="n">
         <v>405.6640017865753</v>
       </c>
       <c r="L39" t="n">
-        <v>772.3621620992407</v>
+        <v>772.3621620992404</v>
       </c>
       <c r="M39" t="n">
-        <v>1219.638487321557</v>
+        <v>1219.638487321556</v>
       </c>
       <c r="N39" t="n">
         <v>1693.161530876011</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.7792689523013</v>
+        <v>584.7792689523018</v>
       </c>
       <c r="C40" t="n">
-        <v>489.278061506242</v>
+        <v>489.2780615062425</v>
       </c>
       <c r="D40" t="n">
-        <v>412.5963975757539</v>
+        <v>412.5963975757543</v>
       </c>
       <c r="E40" t="n">
-        <v>338.1182794752085</v>
+        <v>338.1182794752087</v>
       </c>
       <c r="F40" t="n">
-        <v>264.6633074591458</v>
+        <v>264.663307459146</v>
       </c>
       <c r="G40" t="n">
-        <v>170.3954463157123</v>
+        <v>170.3954463157125</v>
       </c>
       <c r="H40" t="n">
-        <v>97.61323501541779</v>
+        <v>97.61323501541787</v>
       </c>
       <c r="I40" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J40" t="n">
-        <v>118.8451657625463</v>
+        <v>118.8451657625464</v>
       </c>
       <c r="K40" t="n">
-        <v>322.8323487114227</v>
+        <v>322.8323487114228</v>
       </c>
       <c r="L40" t="n">
-        <v>639.3921471599187</v>
+        <v>639.392147159919</v>
       </c>
       <c r="M40" t="n">
-        <v>983.5491927594678</v>
+        <v>983.549192759468</v>
       </c>
       <c r="N40" t="n">
-        <v>1324.957569465332</v>
+        <v>1324.957569465333</v>
       </c>
       <c r="O40" t="n">
         <v>1624.287168385746</v>
       </c>
       <c r="P40" t="n">
-        <v>1856.894668819405</v>
+        <v>1856.894668819406</v>
       </c>
       <c r="Q40" t="n">
-        <v>1934.50496497192</v>
+        <v>1934.504964971921</v>
       </c>
       <c r="R40" t="n">
         <v>1918.109483211296</v>
@@ -7360,22 +7360,22 @@
         <v>1799.85857451997</v>
       </c>
       <c r="T40" t="n">
-        <v>1651.526934571343</v>
+        <v>1651.526934571344</v>
       </c>
       <c r="U40" t="n">
         <v>1435.859043178835</v>
       </c>
       <c r="V40" t="n">
-        <v>1254.609530454795</v>
+        <v>1210.887131933659</v>
       </c>
       <c r="W40" t="n">
-        <v>1038.627335899682</v>
+        <v>994.9049373785463</v>
       </c>
       <c r="X40" t="n">
-        <v>884.0727604835126</v>
+        <v>840.3503619623765</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.7151568218302</v>
+        <v>692.9927583006939</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1945.501618031078</v>
+        <v>1661.88836363558</v>
       </c>
       <c r="C41" t="n">
-        <v>1623.98873403874</v>
+        <v>1340.375479643242</v>
       </c>
       <c r="D41" t="n">
-        <v>1393.354209457405</v>
+        <v>1029.559413984564</v>
       </c>
       <c r="E41" t="n">
-        <v>1055.015589807234</v>
+        <v>691.2207943343938</v>
       </c>
       <c r="F41" t="n">
-        <v>691.4793179657001</v>
+        <v>327.6845224928593</v>
       </c>
       <c r="G41" t="n">
-        <v>323.8565007587703</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="H41" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="I41" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J41" t="n">
         <v>262.6016642746362</v>
@@ -7415,46 +7415,46 @@
         <v>596.4210379644827</v>
       </c>
       <c r="L41" t="n">
-        <v>1047.455251212892</v>
+        <v>1400.765678500832</v>
       </c>
       <c r="M41" t="n">
-        <v>1580.987155884816</v>
+        <v>1934.297583172756</v>
       </c>
       <c r="N41" t="n">
-        <v>2127.765972943599</v>
+        <v>2481.076400231539</v>
       </c>
       <c r="O41" t="n">
-        <v>2630.738443822936</v>
+        <v>2984.048871110876</v>
       </c>
       <c r="P41" t="n">
-        <v>3313.763981793802</v>
+        <v>3378.823237468054</v>
       </c>
       <c r="Q41" t="n">
-        <v>3562.050343549484</v>
+        <v>3627.109599223736</v>
       </c>
       <c r="R41" t="n">
         <v>3686.126665780539</v>
       </c>
       <c r="S41" t="n">
-        <v>3623.285630255708</v>
+        <v>3623.285630255707</v>
       </c>
       <c r="T41" t="n">
-        <v>3464.757515588003</v>
+        <v>3464.757515588002</v>
       </c>
       <c r="U41" t="n">
         <v>3258.676671809912</v>
       </c>
       <c r="V41" t="n">
-        <v>3258.676671809912</v>
+        <v>2975.063417414415</v>
       </c>
       <c r="W41" t="n">
-        <v>2953.357649487872</v>
+        <v>2669.744395092373</v>
       </c>
       <c r="X41" t="n">
-        <v>2627.341524174865</v>
+        <v>2343.728269779367</v>
       </c>
       <c r="Y41" t="n">
-        <v>2284.651825147127</v>
+        <v>2001.038570751628</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>948.754271364536</v>
+        <v>948.7542713645361</v>
       </c>
       <c r="C42" t="n">
-        <v>774.301242083409</v>
+        <v>774.3012420834091</v>
       </c>
       <c r="D42" t="n">
-        <v>625.3668324221577</v>
+        <v>625.3668324221578</v>
       </c>
       <c r="E42" t="n">
-        <v>466.1293774167022</v>
+        <v>466.1293774167023</v>
       </c>
       <c r="F42" t="n">
         <v>319.5948194435872</v>
@@ -7485,7 +7485,7 @@
         <v>92.72982491407282</v>
       </c>
       <c r="I42" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J42" t="n">
         <v>167.3998028062281</v>
@@ -7549,25 +7549,25 @@
         <v>645.1901167088881</v>
       </c>
       <c r="D43" t="n">
-        <v>542.5231102446257</v>
+        <v>542.5231102446256</v>
       </c>
       <c r="E43" t="n">
-        <v>442.0596496103057</v>
+        <v>442.0596496103058</v>
       </c>
       <c r="F43" t="n">
-        <v>342.6193350604686</v>
+        <v>342.6193350604687</v>
       </c>
       <c r="G43" t="n">
         <v>222.3661313832609</v>
       </c>
       <c r="H43" t="n">
-        <v>123.5985775491921</v>
+        <v>123.598577549192</v>
       </c>
       <c r="I43" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J43" t="n">
-        <v>165.350551014953</v>
+        <v>165.3505510149529</v>
       </c>
       <c r="K43" t="n">
         <v>415.843119216236</v>
@@ -7579,13 +7579,13 @@
         <v>1169.570733769094</v>
       </c>
       <c r="N43" t="n">
-        <v>1557.484495727366</v>
+        <v>1557.484495727365</v>
       </c>
       <c r="O43" t="n">
-        <v>1903.319479900186</v>
+        <v>1903.319479900185</v>
       </c>
       <c r="P43" t="n">
-        <v>2182.432365586252</v>
+        <v>2182.432365586251</v>
       </c>
       <c r="Q43" t="n">
         <v>2306.548046991173</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1661.888363635582</v>
+        <v>1661.88836363558</v>
       </c>
       <c r="C44" t="n">
-        <v>1661.888363635582</v>
+        <v>1340.375479643241</v>
       </c>
       <c r="D44" t="n">
-        <v>1351.072297976904</v>
+        <v>1029.559413984565</v>
       </c>
       <c r="E44" t="n">
-        <v>1055.015589807235</v>
+        <v>691.4793179657005</v>
       </c>
       <c r="F44" t="n">
         <v>691.4793179657005</v>
@@ -7640,10 +7640,10 @@
         <v>323.8565007587703</v>
       </c>
       <c r="H44" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="I44" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J44" t="n">
         <v>262.6016642746362</v>
@@ -7652,46 +7652,46 @@
         <v>596.4210379644827</v>
       </c>
       <c r="L44" t="n">
-        <v>1047.455251212892</v>
+        <v>1335.706422826579</v>
       </c>
       <c r="M44" t="n">
-        <v>1580.987155884816</v>
+        <v>1869.238327498504</v>
       </c>
       <c r="N44" t="n">
-        <v>2127.765972943599</v>
+        <v>2416.017144557286</v>
       </c>
       <c r="O44" t="n">
-        <v>2984.048871110876</v>
+        <v>2918.989615436623</v>
       </c>
       <c r="P44" t="n">
-        <v>3378.823237468055</v>
+        <v>3313.763981793801</v>
       </c>
       <c r="Q44" t="n">
-        <v>3627.109599223737</v>
+        <v>3562.050343549483</v>
       </c>
       <c r="R44" t="n">
         <v>3686.126665780539</v>
       </c>
       <c r="S44" t="n">
-        <v>3623.285630255708</v>
+        <v>3623.285630255707</v>
       </c>
       <c r="T44" t="n">
-        <v>3464.757515588003</v>
+        <v>3464.757515588002</v>
       </c>
       <c r="U44" t="n">
-        <v>3258.676671809913</v>
+        <v>3258.676671809912</v>
       </c>
       <c r="V44" t="n">
-        <v>2975.063417414416</v>
+        <v>2975.063417414415</v>
       </c>
       <c r="W44" t="n">
-        <v>2669.744395092375</v>
+        <v>2669.744395092373</v>
       </c>
       <c r="X44" t="n">
-        <v>2343.728269779368</v>
+        <v>2343.728269779367</v>
       </c>
       <c r="Y44" t="n">
-        <v>2001.03857075163</v>
+        <v>2001.038570751628</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>92.72982491407282</v>
       </c>
       <c r="I45" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J45" t="n">
         <v>167.3998028062281</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.676666688722</v>
+        <v>766.6766666887218</v>
       </c>
       <c r="C46" t="n">
-        <v>645.1901167088884</v>
+        <v>645.1901167088881</v>
       </c>
       <c r="D46" t="n">
-        <v>542.523110244626</v>
+        <v>542.5231102446257</v>
       </c>
       <c r="E46" t="n">
-        <v>442.0596496103061</v>
+        <v>442.0596496103059</v>
       </c>
       <c r="F46" t="n">
-        <v>342.619335060469</v>
+        <v>342.6193350604688</v>
       </c>
       <c r="G46" t="n">
-        <v>222.3661313832613</v>
+        <v>222.3661313832611</v>
       </c>
       <c r="H46" t="n">
         <v>123.5985775491921</v>
       </c>
       <c r="I46" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J46" t="n">
-        <v>165.350551014953</v>
+        <v>165.3505510149529</v>
       </c>
       <c r="K46" t="n">
         <v>415.8431192162359</v>
@@ -7816,13 +7816,13 @@
         <v>1169.570733769094</v>
       </c>
       <c r="N46" t="n">
-        <v>1557.484495727366</v>
+        <v>1557.484495727365</v>
       </c>
       <c r="O46" t="n">
-        <v>1903.319479900186</v>
+        <v>1903.319479900185</v>
       </c>
       <c r="P46" t="n">
-        <v>2182.432365586252</v>
+        <v>2182.432365586251</v>
       </c>
       <c r="Q46" t="n">
         <v>2306.548046991173</v>
@@ -7840,7 +7840,7 @@
         <v>1703.96075506299</v>
       </c>
       <c r="V46" t="n">
-        <v>1496.725899805177</v>
+        <v>1496.725899805176</v>
       </c>
       <c r="W46" t="n">
         <v>1254.758362716289</v>
@@ -7849,7 +7849,7 @@
         <v>1074.218444766345</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.8754985708883</v>
+        <v>900.8754985708881</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>165.5682265218425</v>
+        <v>165.5682265218424</v>
       </c>
       <c r="K8" t="n">
-        <v>196.8928238898395</v>
+        <v>196.8928238898394</v>
       </c>
       <c r="L8" t="n">
-        <v>206.9884515625804</v>
+        <v>206.9884515625803</v>
       </c>
       <c r="M8" t="n">
-        <v>198.3252040166153</v>
+        <v>198.3252040166152</v>
       </c>
       <c r="N8" t="n">
-        <v>196.8739006563497</v>
+        <v>196.8739006563496</v>
       </c>
       <c r="O8" t="n">
-        <v>199.3724025592454</v>
+        <v>199.3724025592452</v>
       </c>
       <c r="P8" t="n">
-        <v>205.0092287578876</v>
+        <v>205.0092287578875</v>
       </c>
       <c r="Q8" t="n">
-        <v>202.6127329749891</v>
+        <v>202.612732974989</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>117.6192276796911</v>
+        <v>117.619227679691</v>
       </c>
       <c r="K9" t="n">
         <v>122.0857268206297</v>
       </c>
       <c r="L9" t="n">
-        <v>117.3688804135389</v>
+        <v>117.3688804135388</v>
       </c>
       <c r="M9" t="n">
-        <v>117.4115554169544</v>
+        <v>117.4115554169543</v>
       </c>
       <c r="N9" t="n">
-        <v>105.964903136271</v>
+        <v>105.9649031362709</v>
       </c>
       <c r="O9" t="n">
-        <v>119.3814220199299</v>
+        <v>119.3814220199298</v>
       </c>
       <c r="P9" t="n">
         <v>115.3424657637594</v>
       </c>
       <c r="Q9" t="n">
-        <v>127.5268145151131</v>
+        <v>127.526814515113</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>122.7231057150835</v>
+        <v>122.7231057150834</v>
       </c>
       <c r="M10" t="n">
         <v>126.1031129636129</v>
@@ -8623,10 +8623,10 @@
         <v>115.1677679371615</v>
       </c>
       <c r="O10" t="n">
-        <v>126.8943457673268</v>
+        <v>126.8943457673267</v>
       </c>
       <c r="P10" t="n">
-        <v>127.8345507770354</v>
+        <v>127.8345507770353</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>99.01458168770381</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>398.7571653273199</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>22.056124531867</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>400.2032972882108</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>62.52018570663739</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>306.6874953089251</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>62.52018570663733</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>306.6874953089251</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>65.51711806374198</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>122.0661844377129</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>35.08051131128636</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>291.1627996097862</v>
+        <v>35.08051131128548</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>356.8792194827678</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>291.1627996097862</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>291.1627996097853</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>356.8792194827686</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>15.28796821707175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>308.4587433261291</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>31.73550625763947</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-8.952838470577262e-13</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D14" t="n">
-        <v>31.73550625764026</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>83.92851037866873</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>94.42595086368377</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96297765942731</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>111.9486533901764</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5274743413864</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>318.0131545273049</v>
       </c>
     </row>
     <row r="18">
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>73.78784377802563</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>338.6512616129628</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5063165497205</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>110.9327888412693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-2.700062395888381e-13</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>79.37972566656823</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>112.5242197493849</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25865,16 +25865,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>41.85909236569656</v>
+        <v>0.2559383949940002</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>717560.2315533141</v>
+        <v>717560.2315533143</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>717560.231553314</v>
+        <v>717560.2315533141</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739464.793199733</v>
+        <v>739464.7931997332</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>739464.793199733</v>
+        <v>739464.7931997332</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755387.5598420152</v>
+        <v>755387.559842015</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755387.5598420152</v>
+        <v>755387.559842015</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.9794415567</v>
+        <v>675902.9794415568</v>
       </c>
       <c r="C2" t="n">
-        <v>675903.9493413604</v>
+        <v>675903.9493413605</v>
       </c>
       <c r="D2" t="n">
         <v>675914.9551008691</v>
       </c>
       <c r="E2" t="n">
-        <v>630738.0831591203</v>
+        <v>630738.0831591204</v>
       </c>
       <c r="F2" t="n">
-        <v>630738.0831591201</v>
+        <v>630738.0831591204</v>
       </c>
       <c r="G2" t="n">
-        <v>650274.5840870074</v>
+        <v>650274.5840870083</v>
       </c>
       <c r="H2" t="n">
-        <v>650274.5840870074</v>
+        <v>650274.5840870079</v>
       </c>
       <c r="I2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="J2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.460138034</v>
       </c>
       <c r="K2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="M2" t="n">
         <v>677359.460138034</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="O2" t="n">
-        <v>653707.9599615196</v>
+        <v>653707.959961519</v>
       </c>
       <c r="P2" t="n">
-        <v>653707.959961519</v>
+        <v>653707.9599615186</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>35702.60046935015</v>
+        <v>35702.60046935033</v>
       </c>
       <c r="E3" t="n">
         <v>1124903.918865024</v>
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.71800812479</v>
+        <v>16999.71800812494</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.23978166286</v>
+        <v>28261.23978166277</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.54414803091</v>
+        <v>40637.54414803088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.71800812479</v>
+        <v>16999.71800812481</v>
       </c>
       <c r="M3" t="n">
         <v>204641.633504584</v>
@@ -26424,40 +26424,40 @@
         <v>423752.0599707545</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359853</v>
+        <v>58215.55741359858</v>
       </c>
       <c r="F4" t="n">
-        <v>58215.55741359852</v>
+        <v>58215.55741359858</v>
       </c>
       <c r="G4" t="n">
-        <v>71624.61628857299</v>
+        <v>71624.61628857304</v>
       </c>
       <c r="H4" t="n">
-        <v>71624.61628857299</v>
+        <v>71624.61628857307</v>
       </c>
       <c r="I4" t="n">
-        <v>85910.97499131848</v>
+        <v>85910.97499131851</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409844</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409844</v>
+        <v>82806.76150409837</v>
       </c>
       <c r="M4" t="n">
-        <v>86578.44856836612</v>
+        <v>86578.44856836608</v>
       </c>
       <c r="N4" t="n">
-        <v>86578.44856836615</v>
+        <v>86578.44856836608</v>
       </c>
       <c r="O4" t="n">
-        <v>70331.39278750688</v>
+        <v>70331.39278750679</v>
       </c>
       <c r="P4" t="n">
-        <v>70331.39278750685</v>
+        <v>70331.39278750679</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>34616.49914020256</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.92993831306</v>
+        <v>80041.92993831307</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.92993831306</v>
+        <v>80041.92993831307</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.56094423249</v>
+        <v>86503.56094423248</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>85898.12629704371</v>
+        <v>85898.12629704372</v>
       </c>
       <c r="N5" t="n">
         <v>85898.12629704372</v>
       </c>
       <c r="O5" t="n">
-        <v>83735.41015318656</v>
+        <v>83735.41015318655</v>
       </c>
       <c r="P5" t="n">
-        <v>83735.41015318656</v>
+        <v>83735.41015318655</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>206001.4997223086</v>
+        <v>205997.0861444406</v>
       </c>
       <c r="C6" t="n">
-        <v>203609.7912793066</v>
+        <v>203605.3806405289</v>
       </c>
       <c r="D6" t="n">
-        <v>181843.7955205618</v>
+        <v>181839.4182325702</v>
       </c>
       <c r="E6" t="n">
-        <v>-630636.8864412839</v>
+        <v>-630778.1633412198</v>
       </c>
       <c r="F6" t="n">
-        <v>494267.0324237398</v>
+        <v>494125.7555238039</v>
       </c>
       <c r="G6" t="n">
-        <v>481608.3198519966</v>
+        <v>481526.2444700244</v>
       </c>
       <c r="H6" t="n">
-        <v>498608.0378601213</v>
+        <v>498525.962478149</v>
       </c>
       <c r="I6" t="n">
-        <v>476683.68442082</v>
+        <v>476683.6844208202</v>
       </c>
       <c r="J6" t="n">
-        <v>464537.2128110981</v>
+        <v>464537.2128110985</v>
       </c>
       <c r="K6" t="n">
-        <v>505174.7569591291</v>
+        <v>505174.7569591296</v>
       </c>
       <c r="L6" t="n">
-        <v>488175.0389510043</v>
+        <v>488175.0389510047</v>
       </c>
       <c r="M6" t="n">
         <v>300241.2517680402</v>
       </c>
       <c r="N6" t="n">
-        <v>504882.8852726237</v>
+        <v>504882.8852726243</v>
       </c>
       <c r="O6" t="n">
-        <v>499641.1570208261</v>
+        <v>499569.4858081695</v>
       </c>
       <c r="P6" t="n">
-        <v>499641.1570208257</v>
+        <v>499569.4858081692</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="N2" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>45.3623458808513</v>
+        <v>45.36234588085151</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26771,7 +26771,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6782811575466</v>
+        <v>937.6782811575464</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.531666445135</v>
       </c>
       <c r="N4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.531666445135</v>
       </c>
       <c r="O4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.5316664451346</v>
       </c>
       <c r="P4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.5316664451346</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24964751015598</v>
+        <v>21.24964751015602</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72548910843658</v>
+        <v>25.72548910843655</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24964751015598</v>
+        <v>21.24964751015601</v>
       </c>
       <c r="M2" t="n">
-        <v>25.72548910843653</v>
+        <v>25.72548910843648</v>
       </c>
       <c r="N2" t="n">
         <v>5.684341886080801e-14</v>
@@ -26963,7 +26963,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>41.68848298760898</v>
+        <v>41.68848298760919</v>
       </c>
       <c r="E3" t="n">
         <v>1044.414354712447</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2768257552539</v>
+        <v>106.2768257552535</v>
       </c>
       <c r="J4" t="n">
         <v>76.65818005106803</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>738.596660638813</v>
+        <v>738.5966606388132</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24964751015598</v>
+        <v>21.24964751015602</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72548910843658</v>
+        <v>25.72548910843655</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.6071955840997</v>
       </c>
       <c r="I8" t="n">
-        <v>203.4454098133345</v>
+        <v>203.4454098133344</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>111.2931056928207</v>
       </c>
       <c r="I9" t="n">
-        <v>86.03725157627656</v>
+        <v>86.03725157627655</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.09982124425322</v>
+        <v>94.09982124425319</v>
       </c>
       <c r="S9" t="n">
         <v>169.8708170019</v>
@@ -28032,10 +28032,10 @@
         <v>152.9904972194902</v>
       </c>
       <c r="J10" t="n">
-        <v>87.57585283937145</v>
+        <v>87.57585283937144</v>
       </c>
       <c r="K10" t="n">
-        <v>12.76570854133729</v>
+        <v>12.76570854133725</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.31232902368583</v>
+        <v>79.31232902368581</v>
       </c>
       <c r="R10" t="n">
         <v>173.6153231357483</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>28.90347009138151</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.90347009138338</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="J22" t="n">
-        <v>28.90347009138323</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>28.90347009138151</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22478412874852</v>
+        <v>68.22478412874862</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="J25" t="n">
-        <v>28.90347009138294</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>28.90347009138185</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22478412874854</v>
+        <v>68.22478412874861</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="C35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="D35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="E35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="F35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="G35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="H35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="T35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="U35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="V35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="W35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="X35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="Y35" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="C37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="D37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="E37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="F37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="G37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="H37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="I37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="S37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="T37" t="n">
-        <v>29.41545119110464</v>
+        <v>29.41545119110577</v>
       </c>
       <c r="U37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="V37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="W37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="X37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.70062572702911</v>
+        <v>72.70062572702903</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="C38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="D38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="E38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="F38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="G38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="H38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="T38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="U38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="V38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="W38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="X38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.41545119110373</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="C40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="D40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="E40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="F40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="G40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="H40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="I40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="S40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="T40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="U40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="V40" t="n">
-        <v>72.70062572702916</v>
+        <v>29.41545119110424</v>
       </c>
       <c r="W40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="X40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702909</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.48846056906043</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1823611894707589</v>
+        <v>0.1823611894707597</v>
       </c>
       <c r="H8" t="n">
-        <v>1.86760653166741</v>
+        <v>1.867606531667418</v>
       </c>
       <c r="I8" t="n">
-        <v>7.030479757071438</v>
+        <v>7.03047975707147</v>
       </c>
       <c r="J8" t="n">
-        <v>15.47767800484383</v>
+        <v>15.4776780048439</v>
       </c>
       <c r="K8" t="n">
-        <v>23.19702715514106</v>
+        <v>23.19702715514117</v>
       </c>
       <c r="L8" t="n">
-        <v>28.7779634074068</v>
+        <v>28.77796340740693</v>
       </c>
       <c r="M8" t="n">
-        <v>32.02102921065741</v>
+        <v>32.02102921065755</v>
       </c>
       <c r="N8" t="n">
-        <v>32.53916294024121</v>
+        <v>32.53916294024135</v>
       </c>
       <c r="O8" t="n">
-        <v>30.72580886244135</v>
+        <v>30.72580886244149</v>
       </c>
       <c r="P8" t="n">
-        <v>26.22376699738198</v>
+        <v>26.2237669973821</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.69295689946042</v>
+        <v>19.69295689946052</v>
       </c>
       <c r="R8" t="n">
-        <v>11.45524606809257</v>
+        <v>11.45524606809262</v>
       </c>
       <c r="S8" t="n">
-        <v>4.155555605064921</v>
+        <v>4.155555605064941</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7982861069082473</v>
+        <v>0.798286106908251</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01458889515766071</v>
+        <v>0.01458889515766077</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09757183830975563</v>
+        <v>0.09757183830975608</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9423385436757979</v>
+        <v>0.9423385436758023</v>
       </c>
       <c r="I9" t="n">
-        <v>3.359381275138517</v>
+        <v>3.359381275138532</v>
       </c>
       <c r="J9" t="n">
-        <v>9.218398986975641</v>
+        <v>9.218398986975684</v>
       </c>
       <c r="K9" t="n">
-        <v>15.75571215372927</v>
+        <v>15.75571215372934</v>
       </c>
       <c r="L9" t="n">
-        <v>21.18549936633532</v>
+        <v>21.18549936633542</v>
       </c>
       <c r="M9" t="n">
-        <v>24.72247850506395</v>
+        <v>24.72247850506407</v>
       </c>
       <c r="N9" t="n">
-        <v>25.37680894706228</v>
+        <v>25.37680894706239</v>
       </c>
       <c r="O9" t="n">
-        <v>23.21482242451453</v>
+        <v>23.21482242451464</v>
       </c>
       <c r="P9" t="n">
-        <v>18.63194165057079</v>
+        <v>18.63194165057088</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.45495957090846</v>
+        <v>12.45495957090851</v>
       </c>
       <c r="R9" t="n">
-        <v>6.058012908389918</v>
+        <v>6.058012908389945</v>
       </c>
       <c r="S9" t="n">
-        <v>1.812354101937784</v>
+        <v>1.812354101937792</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3932829798537956</v>
+        <v>0.3932829798537973</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006419199888799715</v>
+        <v>0.006419199888799744</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08180095158842036</v>
+        <v>0.08180095158842074</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7272848241225016</v>
+        <v>0.7272848241225049</v>
       </c>
       <c r="I10" t="n">
-        <v>2.459977707768133</v>
+        <v>2.459977707768144</v>
       </c>
       <c r="J10" t="n">
-        <v>5.78332727730132</v>
+        <v>5.783327277301346</v>
       </c>
       <c r="K10" t="n">
-        <v>9.503783284545564</v>
+        <v>9.503783284545607</v>
       </c>
       <c r="L10" t="n">
-        <v>12.16157056615479</v>
+        <v>12.16157056615484</v>
       </c>
       <c r="M10" t="n">
-        <v>12.82267098399211</v>
+        <v>12.82267098399217</v>
       </c>
       <c r="N10" t="n">
-        <v>12.51777652807165</v>
+        <v>12.5177765280717</v>
       </c>
       <c r="O10" t="n">
-        <v>11.562192684516</v>
+        <v>11.56219268451606</v>
       </c>
       <c r="P10" t="n">
-        <v>9.89345327211222</v>
+        <v>9.893453272112264</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.849714228008546</v>
+        <v>6.849714228008577</v>
       </c>
       <c r="R10" t="n">
-        <v>3.678068241421155</v>
+        <v>3.678068241421172</v>
       </c>
       <c r="S10" t="n">
-        <v>1.425567492681834</v>
+        <v>1.425567492681841</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3495131567868869</v>
+        <v>0.3495131567868885</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004461870086641116</v>
+        <v>0.004461870086641137</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32798,7 +32798,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35887,7 +35887,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923321</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -36048,7 +36048,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5368494848653</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.297708629277</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>74.48188670444945</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>331.2566003140213</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>289.8015826564164</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>937.6782811575466</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36373,7 +36373,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>420.8181107512389</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36446,7 +36446,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.48188670444917</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
@@ -36525,7 +36525,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>373.7604162589219</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
@@ -36595,13 +36595,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>855.7934116805429</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,10 +36610,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>461.2821719260093</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36832,16 +36832,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>643.8787818643256</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>614.8220211195488</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36850,7 +36850,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37069,10 +37069,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>643.8787818643256</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>521.1072324560741</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>630.119185325932</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>285.8748161150058</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>830.083915440013</v>
+        <v>574.0016271415124</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>812.4693338751</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37795,13 +37795,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>689.9247858291581</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -37956,7 +37956,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>746.7529140021174</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,7 +38029,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>864.9322203709877</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,10 +38181,10 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
